--- a/excels/kv.xlsx
+++ b/excels/kv.xlsx
@@ -9394,8 +9394,8 @@
   <sheetPr/>
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -9863,7 +9863,7 @@
         <v>212</v>
       </c>
       <c r="T11" s="50">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="V11" s="50" t="s">
         <v>192</v>
